--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPDResponse-CriteriaTaxonomy-SELCONTAINED-V02.00.00.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPDResponse-CriteriaTaxonomy-SELCONTAINED-V02.00.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20730" windowHeight="8400" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20730" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OTHER-EO-SHELTERED" sheetId="25" r:id="rId1"/>
@@ -223,15 +223,9 @@
     <t>CRITERION.OTHER.EO_DATA.SUBCONTRACTS_WITH_THIRD_PARTIES</t>
   </si>
   <si>
-    <t>a) Alternative or additional name of the (pre)qualifiction system</t>
-  </si>
-  <si>
     <t>Lots selected by the economic operator</t>
   </si>
   <si>
-    <t>Lot ID</t>
-  </si>
-  <si>
     <t>1..n</t>
   </si>
   <si>
@@ -259,9 +253,6 @@
     <t>IT Consultancy</t>
   </si>
   <si>
-    <t>[LotID]</t>
-  </si>
-  <si>
     <t>0..n</t>
   </si>
   <si>
@@ -287,6 +278,15 @@
   </si>
   <si>
     <t>ID of the subcontractor</t>
+  </si>
+  <si>
+    <t>Lot Ids</t>
+  </si>
+  <si>
+    <t>[first response value of a sequence of IDENTIFIERS]</t>
+  </si>
+  <si>
+    <t>a) Alternative name of the (pre)qualifiction system</t>
   </si>
 </sst>
 </file>
@@ -2242,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,7 +2614,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="17"/>
       <c r="S7" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="18">
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>0</v>
@@ -3492,10 +3492,10 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="17"/>
       <c r="S5" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U5" s="18">
         <v>1</v>
@@ -3539,23 +3539,23 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="17"/>
       <c r="S6" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U6" s="18">
         <v>1</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W6" s="19"/>
       <c r="X6" s="20" t="s">
         <v>0</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3580,10 +3580,10 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="17"/>
       <c r="S7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U7" s="18">
         <v>1</v>
@@ -4062,7 +4062,7 @@
   <dimension ref="A1:Y131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4253,7 +4253,7 @@
         <v>46</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T3" s="8"/>
       <c r="U3" s="24"/>
@@ -4345,16 +4345,16 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="17"/>
       <c r="S5" s="5" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="U5" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W5" s="19" t="s">
         <v>0</v>
@@ -5984,11 +5984,11 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="X6" s="40" t="s">
         <v>17</v>
@@ -6017,10 +6017,10 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="17"/>
       <c r="S7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="U7" s="18">
         <v>1</v>
@@ -6052,10 +6052,10 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="17"/>
       <c r="S8" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="U8" s="18">
         <v>1</v>
@@ -6087,10 +6087,10 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="17"/>
       <c r="S9" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U9" s="18">
         <v>1</v>
@@ -6709,7 +6709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7036,11 +7036,11 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="X6" s="40" t="s">
         <v>17</v>
@@ -7069,10 +7069,10 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="17"/>
       <c r="S7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="U7" s="18">
         <v>1</v>
@@ -7104,10 +7104,10 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="17"/>
       <c r="S8" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="U8" s="18">
         <v>1</v>
@@ -7139,10 +7139,10 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="17"/>
       <c r="S9" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U9" s="18">
         <v>1</v>
